--- a/pandas/tests/io/data/test_multisheet.xlsx
+++ b/pandas/tests/io/data/test_multisheet.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamayd/clones/pandas/pandas/tests/io/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4714A03-36E7-E443-9E0F-3C4D2BE631DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="12040"/>
   </bookViews>
   <sheets>
     <sheet name="Charlie" sheetId="3" r:id="rId1"/>
     <sheet name="Alpha" sheetId="1" r:id="rId2"/>
     <sheet name="Beta" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,74 +80,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00DD0806"/>
-      <rgbColor rgb="001FB714"/>
-      <rgbColor rgb="000000D4"/>
-      <rgbColor rgb="00FCF305"/>
-      <rgbColor rgb="00F20884"/>
-      <rgbColor rgb="0000ABEA"/>
-      <rgbColor rgb="00900000"/>
-      <rgbColor rgb="00006411"/>
-      <rgbColor rgb="00000090"/>
-      <rgbColor rgb="0090713A"/>
-      <rgbColor rgb="004600A5"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -420,7 +346,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -431,15 +357,15 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -453,7 +379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <f>DATE(2014,3,15)</f>
         <v>41713</v>
@@ -470,7 +396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>41714</v>
@@ -488,7 +414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <f t="shared" ref="A4:B7" si="1">A3+1</f>
         <v>41715</v>
@@ -506,7 +432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>41716</v>
@@ -524,7 +450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>41717</v>
@@ -542,7 +468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>41718</v>
@@ -562,6 +488,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -573,12 +504,12 @@
       <selection activeCell="D7" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -592,7 +523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <f>DATE(2014,1,1)</f>
         <v>41640</v>
@@ -609,98 +540,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:B7" si="0">A2+1</f>
+        <f>A2+1</f>
         <v>41641</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
+        <f>B2+1</f>
         <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:D7" si="1">B3+1</f>
+        <f t="shared" ref="C3:D7" si="0">B3+1</f>
         <v>3</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A4:A7" si="1">A3+1</f>
         <v>41642</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B4:B7" si="2">B3+1</f>
         <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41643</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41644</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41645</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -712,12 +648,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -731,7 +667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <f>DATE(2014,6,1)</f>
         <v>41791</v>
@@ -748,7 +684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>41792</v>
@@ -766,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <f t="shared" ref="A4:B7" si="1">A3+1</f>
         <v>41793</v>
@@ -784,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>41794</v>
@@ -802,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>41795</v>
@@ -820,7 +756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>41796</v>
@@ -840,5 +776,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>